--- a/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex1,2,3.xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex1,2,3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouds\OneDrive\GitHub\TempForSchool\Fizyka_Sprawka\Lab2_Cw57c\Final_OnlyToMerge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clouds\OneDrive\GitHub\TempForSchool\Fizyka_Sprawka\Lab2_Cw57c\Final_Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>[deg]</t>
   </si>
@@ -47,10 +47,13 @@
     <t>Wartość</t>
   </si>
   <si>
-    <t>Wzory i obliczenia</t>
+    <t>Poszczególne wartości umieszczone w tabelce końcowej</t>
   </si>
   <si>
-    <t>Poszczególne wartości umieszczone w tabelce końcowej</t>
+    <t>Tabela 1.0</t>
+  </si>
+  <si>
+    <t>Tabela 1.1 Wartości potrzebne do obliczenia składowej normalnej indukcji</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -147,15 +150,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -206,17 +200,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -243,87 +226,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,305 +413,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>184654</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="965777" cy="313099"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="935448" y="605118"/>
-              <a:ext cx="965777" cy="313099"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="900" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="900" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝛼</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="900" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>0</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>[°]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="900">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="900"/>
-                <a:t>dla którego </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="pl-PL" sz="900" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="900" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑉</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="900" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>h</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="900" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=0</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="900" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>𝑉</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="935448" y="605118"/>
-              <a:ext cx="965777" cy="313099"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="900" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛼_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="900" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> [°]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="900">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="900"/>
-                <a:t>dla którego </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="900" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑉_ℎ=0𝑉</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="900"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>65640</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>67407</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2395592" cy="265970"/>
+    <xdr:ext cx="3042628" cy="265970"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -653,8 +428,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="65640" y="1219932"/>
-              <a:ext cx="2395592" cy="265970"/>
+              <a:off x="65640" y="2187755"/>
+              <a:ext cx="3042628" cy="265970"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -846,7 +621,22 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>−5.934119457</m:t>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="pl-PL" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>5.94</m:t>
                       </m:r>
                       <m:r>
                         <m:rPr>
@@ -874,6 +664,18 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>-59.48650049</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = -59.mV/mA*mT</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
@@ -892,8 +694,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="65640" y="1219932"/>
-              <a:ext cx="2395592" cy="265970"/>
+              <a:off x="65640" y="2187755"/>
+              <a:ext cx="3042628" cy="265970"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1035,7 +837,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"−5.934119457</a:t>
+                <a:t>"−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5.94</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -1062,6 +876,18 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>-59.48650049</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = -59.mV/mA*mT</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
@@ -1082,7 +908,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>26091</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1749390" cy="172227"/>
+    <xdr:ext cx="1962525" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1092,8 +918,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="797616"/>
-              <a:ext cx="1749390" cy="172227"/>
+              <a:off x="0" y="1769166"/>
+              <a:ext cx="1962525" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1238,6 +1064,18 @@
                       </a:rPr>
                       <m:t>=353</m:t>
                     </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑉</m:t>
+                    </m:r>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -1261,8 +1099,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="797616"/>
-              <a:ext cx="1749390" cy="172227"/>
+              <a:off x="0" y="1769166"/>
+              <a:ext cx="1962525" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1336,7 +1174,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐻=183−(−170)=353</a:t>
+                <a:t>𝐻=183−(−170)=353𝑚𝑉</a:t>
               </a:r>
               <a:endParaRPr lang="pl-PL" sz="1100" b="0">
                 <a:solidFill>
@@ -1356,11 +1194,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>33352</xdr:colOff>
+      <xdr:colOff>33351</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>64572</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2860114" cy="172087"/>
+    <xdr:ext cx="4290171" cy="175623"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1370,8 +1208,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33352" y="1026597"/>
-              <a:ext cx="2860114" cy="172087"/>
+              <a:off x="33351" y="1994420"/>
+              <a:ext cx="4290171" cy="175623"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1446,9 +1284,55 @@
                 <a:t>-5.934119457</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>rad</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
                 <a:rPr lang="en-US"/>
                 <a:t> </a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL"/>
+                <a:t>-5.94rad</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -1462,8 +1346,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33352" y="1026597"/>
-              <a:ext cx="2860114" cy="172087"/>
+              <a:off x="33351" y="1994420"/>
+              <a:ext cx="4290171" cy="175623"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1519,9 +1403,51 @@
                 <a:t>-5.934119457</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>rad</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US"/>
                 <a:t> </a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL"/>
+                <a:t>-5.94rad</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -1538,8 +1464,8 @@
       <xdr:rowOff>117974</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1279196" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1723,7 +1649,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1796,160 +1722,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>87072</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="419730" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="87072" y="785812"/>
-              <a:ext cx="419730" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐵</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>0</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>[mT]</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="87072" y="785812"/>
-              <a:ext cx="419730" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>0</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>[mT]</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>60878</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1980029" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2219,7 +1998,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2345,452 +2124,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>136421</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>3049</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="385234" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="136421" y="974599"/>
-              <a:ext cx="385234" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑢</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>(</m:t>
-                  </m:r>
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐵</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>0</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>)</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="136421" y="974599"/>
-              <a:ext cx="385234" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑢(𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>33946</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>13324</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="532582" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="33946" y="1365874"/>
-              <a:ext cx="532582" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>𝑢</m:t>
-                    </m:r>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:sSub>
-                          <m:sSubPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSubPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝛼</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>0</m:t>
-                            </m:r>
-                          </m:sub>
-                        </m:sSub>
-                      </m:e>
-                    </m:d>
-                    <m:d>
-                      <m:dPr>
-                        <m:begChr m:val="["/>
-                        <m:endChr m:val="]"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>°</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="33946" y="1365874"/>
-              <a:ext cx="532582" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑢(𝛼_0 )[°]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>55753</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>70018</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2801748" cy="550728"/>
+    <xdr:ext cx="2801748" cy="547650"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -2800,8 +2138,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="55753" y="3537118"/>
-              <a:ext cx="2801748" cy="550728"/>
+              <a:off x="55753" y="6032668"/>
+              <a:ext cx="2801748" cy="547650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3326,9 +2664,24 @@
                     </a:rPr>
                     <m:t>=2.886751345948129</m:t>
                   </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
                 </m:oMath>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>2.9rad</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3341,8 +2694,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="55753" y="3537118"/>
-              <a:ext cx="2801748" cy="550728"/>
+              <a:off x="55753" y="6032668"/>
+              <a:ext cx="2801748" cy="547650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3571,7 +2924,22 @@
                 </a:rPr>
                 <a:t>8.3333333=2.886751345948129</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>2.9rad</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3586,7 +2954,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>80529</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2787295" cy="550728"/>
+    <xdr:ext cx="2787295" cy="547650"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -3596,8 +2964,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="79730" y="4119129"/>
-              <a:ext cx="2787295" cy="550728"/>
+              <a:off x="79730" y="6614679"/>
+              <a:ext cx="2787295" cy="547650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4094,9 +3462,24 @@
                     </a:rPr>
                     <m:t>=2.886751345948129</m:t>
                   </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
                 </m:oMath>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>2.9rad</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -4109,8 +3492,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="79730" y="4119129"/>
-              <a:ext cx="2787295" cy="550728"/>
+              <a:off x="79730" y="6614679"/>
+              <a:ext cx="2787295" cy="547650"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4339,7 +3722,22 @@
                 </a:rPr>
                 <a:t>8.3333333=2.886751345948129</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>2.9rad</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -4424,6 +3822,18 @@
                           </m:sSubPr>
                           <m:e>
                             <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝜕</m:t>
+                            </m:r>
+                            <m:r>
                               <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
@@ -4433,7 +3843,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑑𝐵</m:t>
+                              <m:t>𝐵</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -4454,10 +3864,16 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑑</m:t>
+                          <m:t>𝜕</m:t>
                         </m:r>
                         <m:sSub>
                           <m:sSubPr>
@@ -4535,6 +3951,18 @@
                           </m:sSubPr>
                           <m:e>
                             <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝜕</m:t>
+                            </m:r>
+                            <m:r>
                               <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
@@ -4544,7 +3972,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑑𝐵</m:t>
+                              <m:t>𝐵</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -4690,16 +4118,16 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1100" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="+mn-lt"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑑</m:t>
+                          <m:t>𝜕</m:t>
                         </m:r>
                         <m:sSub>
                           <m:sSubPr>
@@ -4935,6 +4363,18 @@
                 <a:t>〖</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -4944,7 +4384,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑑𝐵</a:t>
+                <a:t>𝐵</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -4983,40 +4423,70 @@
                 <a:t>/(</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑑</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵_0 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐵_0 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=(</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -5028,7 +4498,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖𝑑𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/(𝑑𝐵_0 )</a:t>
+                <a:t>𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵_0 )</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -5063,7 +4557,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>43355</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2558714" cy="322396"/>
+    <xdr:ext cx="2489208" cy="322396"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -5073,8 +4567,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2748455"/>
-              <a:ext cx="2558714" cy="322396"/>
+              <a:off x="0" y="5226269"/>
+              <a:ext cx="2489208" cy="322396"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5133,6 +4627,18 @@
                           </m:sSubPr>
                           <m:e>
                             <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝜕</m:t>
+                            </m:r>
+                            <m:r>
                               <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
@@ -5142,7 +4648,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑑𝐵</m:t>
+                              <m:t>𝐵</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -5163,10 +4669,16 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑑</m:t>
+                          <m:t>𝜕</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -5213,6 +4725,18 @@
                           </m:sSubPr>
                           <m:e>
                             <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝜕</m:t>
+                            </m:r>
+                            <m:r>
                               <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
@@ -5222,7 +4746,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑑𝐵</m:t>
+                              <m:t>𝐵</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -5368,16 +4892,16 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1100" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="+mn-lt"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑑</m:t>
+                          <m:t>𝜕</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -5583,8 +5107,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="2748455"/>
-              <a:ext cx="2558714" cy="322396"/>
+              <a:off x="0" y="5226269"/>
+              <a:ext cx="2489208" cy="322396"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5625,6 +5149,18 @@
                 <a:t>〖</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -5634,7 +5170,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑑𝐵</a:t>
+                <a:t>𝐵</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -5673,13 +5209,85 @@
                 <a:t>/</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑑</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -5689,24 +5297,6 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝛼</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖𝑑𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/𝑑𝛼</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -5811,6 +5401,18 @@
                           </m:sSubPr>
                           <m:e>
                             <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝜕</m:t>
+                            </m:r>
+                            <m:r>
                               <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
@@ -5820,7 +5422,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑑𝐵</m:t>
+                              <m:t>𝐵</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -5841,10 +5443,16 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑑</m:t>
+                          <m:t>𝜕</m:t>
                         </m:r>
                         <m:sSub>
                           <m:sSubPr>
@@ -5922,6 +5530,18 @@
                           </m:sSubPr>
                           <m:e>
                             <m:r>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝜕</m:t>
+                            </m:r>
+                            <m:r>
                               <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                                 <a:solidFill>
                                   <a:schemeClr val="tx1"/>
@@ -5931,7 +5551,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑑𝐵</m:t>
+                              <m:t>𝐵</m:t>
                             </m:r>
                           </m:e>
                           <m:sub>
@@ -6077,16 +5697,16 @@
                       </m:num>
                       <m:den>
                         <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:rPr lang="en-US" sz="1100" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="+mn-lt"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>𝑑</m:t>
+                          <m:t>𝜕</m:t>
                         </m:r>
                         <m:sSub>
                           <m:sSubPr>
@@ -6377,6 +5997,18 @@
                 <a:t>〖</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -6386,7 +6018,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑑𝐵</a:t>
+                <a:t>𝐵</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -6425,40 +6057,70 @@
                 <a:t>/(</a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑑</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼_0 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛼_0 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=(</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -6470,7 +6132,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖𝑑𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/(𝑑𝛼_0 )</a:t>
+                <a:t>𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼_0 )</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -6748,11 +6434,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:sSub>
                                   <m:sSubPr>
@@ -6800,16 +6486,16 @@
                               </m:num>
                               <m:den>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1100" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:sSub>
                                   <m:sSubPr>
@@ -7011,11 +6697,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:sSub>
                                   <m:sSubPr>
@@ -7063,16 +6749,16 @@
                               </m:num>
                               <m:den>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1100" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -7212,11 +6898,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:sSub>
                                   <m:sSubPr>
@@ -7264,16 +6950,16 @@
                               </m:num>
                               <m:den>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1100" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:sSub>
                                   <m:sSubPr>
@@ -7801,7 +7487,22 @@
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>∗2.886751345948129</m:t>
+                                  <m:t>∗</m:t>
+                                </m:r>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:nor/>
+                                  </m:rPr>
+                                  <a:rPr lang="pl-PL" sz="1100">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2.9</m:t>
                                 </m:r>
                                 <m:r>
                                   <m:rPr>
@@ -8021,7 +7722,22 @@
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>∗2.886751345948129</m:t>
+                                  <m:t>∗</m:t>
+                                </m:r>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:nor/>
+                                  </m:rPr>
+                                  <a:rPr lang="pl-PL" sz="1100">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2.9</m:t>
                                 </m:r>
                                 <m:r>
                                   <m:rPr>
@@ -8258,11 +7974,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -8310,7 +8026,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)/(ⅆ</a:t>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -8414,11 +8142,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -8466,7 +8194,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)/ⅆ</a:t>
+                <a:t>)/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -8522,11 +8262,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -8574,7 +8314,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)/(ⅆ</a:t>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -8694,7 +8446,49 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(0.5∗cos⁡(𝛼−𝛼_0 )∗2.886751345948129</a:t>
+                <a:t>〖(0.5∗cos⁡(𝛼−𝛼_0 )∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2.9</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2@</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -8706,61 +8500,43 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(−〖0.5∗cos〗⁡(𝛼−𝛼_0 )∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>"</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )〗^2@</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(−〖0.5∗cos〗⁡(𝛼−𝛼_0 )∗2.886751345948129</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2.9</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0">
@@ -8807,23 +8583,880 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>125533</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15842</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="965777" cy="365157"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="879250" y="595625"/>
+              <a:ext cx="965777" cy="365157"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="900" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="900" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="900" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="900">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="900"/>
+                <a:t>dla którego </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="900" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="900" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="900" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="900" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=0</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="900" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑚𝑉</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="TextBox 19"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="879250" y="595625"/>
+              <a:ext cx="965777" cy="365157"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="900" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="900">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="900"/>
+                <a:t>dla którego </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="900" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉_ℎ=0𝑚𝑉</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87072</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="419730" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="87072" y="3290887"/>
+              <a:ext cx="419730" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>0</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>[mT]</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="87072" y="3290887"/>
+              <a:ext cx="419730" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>[mT]</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>136421</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3049</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="385234" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="136421" y="3479674"/>
+              <a:ext cx="385234" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="TextBox 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="136421" y="3479674"/>
+              <a:ext cx="385234" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢(𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>33946</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>13324</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="714106" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1396021" y="3870949"/>
+              <a:ext cx="714106" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝛼</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>0</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:e>
+                    </m:d>
+                    <m:d>
+                      <m:dPr>
+                        <m:begChr m:val="["/>
+                        <m:endChr m:val="]"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑟𝑎𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="TextBox 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1396021" y="3870949"/>
+              <a:ext cx="714106" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢(𝛼_0 )[𝑟𝑎𝑑]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="505908" cy="172227"/>
+    <xdr:ext cx="684867" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvPr id="24" name="TextBox 23"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="85725" y="1162050"/>
-              <a:ext cx="505908" cy="172227"/>
+              <a:off x="1447800" y="3667125"/>
+              <a:ext cx="684867" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8925,7 +9558,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>°</m:t>
+                          <m:t>𝑟𝑎𝑑</m:t>
                         </m:r>
                       </m:e>
                     </m:d>
@@ -8947,13 +9580,13 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvPr id="24" name="TextBox 23"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="85725" y="1162050"/>
-              <a:ext cx="505908" cy="172227"/>
+              <a:off x="1447800" y="3667125"/>
+              <a:ext cx="684867" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8991,7 +9624,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑢(𝛼)[°]</a:t>
+                <a:t>𝑢(𝛼)[𝑟𝑎𝑑]</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -9014,6 +9647,810 @@
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
                 <a:t>"</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24846</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1739349" cy="331303"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2758107" y="6029740"/>
+              <a:ext cx="1739349" cy="331303"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝛼</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>0</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2758107" y="6029740"/>
+              <a:ext cx="1739349" cy="331303"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼_0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵^2 (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼_0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1706217" cy="339587"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2733261" y="6576391"/>
+              <a:ext cx="1706217" cy="339587"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:sty m:val="p"/>
+                      </m:rPr>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>α</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSubSup>
+                          <m:sSubSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐵</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSubSup>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝛼</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>0</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2733261" y="6576391"/>
+              <a:ext cx="1706217" cy="339587"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵^2 (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼_0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -9289,142 +10726,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I49"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="6"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="2">
         <v>3.05</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="7">
         <f>DEGREES(D5)</f>
         <v>174.75212751490108</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="2"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="6"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -9432,10 +10880,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="6"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -9443,380 +10892,413 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="6"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="23"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="D17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23">
         <v>0.5</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="36">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25">
         <v>0.05</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="26">
         <v>2.8867513459481202</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="25">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28">
         <v>2.8867513459481202</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="31"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31"/>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="31"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="31"/>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="31"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="31"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="31"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="31"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="31"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="31"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="31"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="31"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="31"/>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="31"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="31"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="31"/>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="31"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="31"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="31"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="31"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="31"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="31"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -9824,10 +11306,11 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="6"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -9835,10 +11318,11 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="6"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -9846,10 +11330,11 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="6"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -9857,20 +11342,22 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="2"/>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -9880,9 +11367,96 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A17:B21"/>
     <mergeCell ref="A23:I44"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="A6:I9"/>

--- a/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex1,2,3.xlsx
+++ b/Fizyka_Sprawka/Lab2_Cw57c/Final_Sheet/Ex1,2,3.xlsx
@@ -331,15 +331,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -358,25 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -386,11 +374,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,9 +418,9 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>67407</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3042628" cy="265970"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="2895921" cy="265970"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -429,7 +429,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="65640" y="2187755"/>
-              <a:ext cx="3042628" cy="265970"/>
+              <a:ext cx="2895921" cy="265970"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -597,7 +597,22 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>353</m:t>
+                        <m:t>3</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>60</m:t>
                       </m:r>
                       <m:r>
                         <m:rPr>
@@ -663,7 +678,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>-59.48650049</a:t>
+                <a:t>-</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -675,7 +690,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> = -59.mV/mA*mT</a:t>
+                <a:t>60.6060606 = -61</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>mV/mA*mT</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
@@ -686,7 +725,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -695,7 +734,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="65640" y="2187755"/>
-              <a:ext cx="3042628" cy="265970"/>
+              <a:ext cx="2895921" cy="265970"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -809,7 +848,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"353</a:t>
+                <a:t>"3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>60</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -875,7 +926,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>-59.48650049</a:t>
+                <a:t>-</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -887,7 +938,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> = -59.mV/mA*mT</a:t>
+                <a:t>60.6060606 = -61</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>mV/mA*mT</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
@@ -909,8 +984,8 @@
       <xdr:rowOff>26091</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1962525" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -918,7 +993,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1769166"/>
+              <a:off x="0" y="1765439"/>
               <a:ext cx="1962525" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1048,7 +1123,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>−170</m:t>
+                          <m:t>−177</m:t>
                         </m:r>
                       </m:e>
                     </m:d>
@@ -1062,7 +1137,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>=353</m:t>
+                      <m:t>=360</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -1091,7 +1166,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1099,7 +1174,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1769166"/>
+              <a:off x="0" y="1765439"/>
               <a:ext cx="1962525" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1174,7 +1249,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐻=183−(−170)=353𝑚𝑉</a:t>
+                <a:t>𝐻=183−(−177)=360𝑚𝑉</a:t>
               </a:r>
               <a:endParaRPr lang="pl-PL" sz="1100" b="0">
                 <a:solidFill>
@@ -1199,8 +1274,8 @@
       <xdr:rowOff>64572</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4290171" cy="175623"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1315,7 +1390,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1338,7 +1413,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1459,13 +1534,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>67401</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117974</xdr:rowOff>
+      <xdr:colOff>8786</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81339</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1279196" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1473,7 +1548,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="67401" y="2061074"/>
+              <a:off x="8786" y="4316301"/>
               <a:ext cx="1279196" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1649,7 +1724,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1657,7 +1732,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="67401" y="2061074"/>
+              <a:off x="8786" y="4316301"/>
               <a:ext cx="1279196" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1722,13 +1797,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60878</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>38897</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60813</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1980029" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2064219" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -1736,8 +1811,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="60878" y="1762125"/>
-              <a:ext cx="1980029" cy="172227"/>
+              <a:off x="38897" y="4105275"/>
+              <a:ext cx="2064219" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1986,7 +2061,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝑤𝑦𝑘𝑟𝑒𝑠</m:t>
+                      <m:t>𝑤𝑦𝑘𝑟𝑒𝑠𝑢</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -1998,7 +2073,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -2006,8 +2081,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="60878" y="1762125"/>
-              <a:ext cx="1980029" cy="172227"/>
+              <a:off x="38897" y="4105275"/>
+              <a:ext cx="2064219" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2111,6 +2186,18 @@
                 </a:rPr>
                 <a:t> [°]  𝑧𝑚𝑖𝑒𝑟𝑧𝑜𝑛𝑒 𝑧 𝑤𝑦𝑘𝑟𝑒𝑠</a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
               <a:endParaRPr lang="en-US" sz="900">
                 <a:effectLst/>
               </a:endParaRPr>
@@ -2123,12 +2210,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>55753</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>70018</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>473387</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135960</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2801748" cy="547650"/>
+    <xdr:ext cx="4516247" cy="375424"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -2138,8 +2225,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="55753" y="6032668"/>
-              <a:ext cx="2801748" cy="547650"/>
+              <a:off x="1228060" y="5894922"/>
+              <a:ext cx="4516247" cy="375424"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2694,8 +2781,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="55753" y="6032668"/>
-              <a:ext cx="2801748" cy="547650"/>
+              <a:off x="1228060" y="5894922"/>
+              <a:ext cx="4516247" cy="375424"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2949,12 +3036,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>79730</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>80529</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>468059</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>109836</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2787295" cy="547650"/>
+    <xdr:ext cx="4514249" cy="375424"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -2964,8 +3051,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="79730" y="6614679"/>
-              <a:ext cx="2787295" cy="547650"/>
+              <a:off x="1222732" y="6440298"/>
+              <a:ext cx="4514249" cy="375424"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3451,6 +3538,18 @@
                     </m:e>
                   </m:rad>
                   <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>= </m:t>
+                  </m:r>
+                  <m:r>
                     <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
@@ -3460,19 +3559,7 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>=2.886751345948129</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≈</m:t>
+                    <m:t>2.886751345948129≈</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -3492,8 +3579,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="79730" y="6614679"/>
-              <a:ext cx="2787295" cy="547650"/>
+              <a:off x="1222732" y="6440298"/>
+              <a:ext cx="4514249" cy="375424"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3720,7 +3807,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>8.3333333=2.886751345948129</a:t>
+                <a:t>8.3333333</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -3728,11 +3827,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>≈</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2.886751345948129≈</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100"/>
@@ -3748,9 +3847,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>61207</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>173091</xdr:rowOff>
+      <xdr:colOff>9918</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114475</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2291909" cy="350865"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3762,7 +3861,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="61207" y="2306691"/>
+              <a:off x="9918" y="4539937"/>
               <a:ext cx="2291909" cy="350865"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3869,7 +3968,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3956,7 +4055,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4123,7 +4222,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4321,7 +4420,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="61207" y="2306691"/>
+              <a:off x="9918" y="4539937"/>
               <a:ext cx="2291909" cy="350865"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4428,7 +4527,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4482,7 +4581,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4506,7 +4605,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4553,9 +4652,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>43355</xdr:rowOff>
+      <xdr:colOff>21980</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>182567</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2489208" cy="322396"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4567,7 +4666,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="5226269"/>
+              <a:off x="21980" y="4989029"/>
               <a:ext cx="2489208" cy="322396"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4632,7 +4731,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4674,7 +4773,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4730,7 +4829,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4897,7 +4996,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5107,7 +5206,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="5226269"/>
+              <a:off x="21980" y="4989029"/>
               <a:ext cx="2489208" cy="322396"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5146,6 +5245,96 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>〖𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>〖</a:t>
               </a:r>
               <a:r>
@@ -5154,7 +5343,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5170,43 +5359,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/</a:t>
+                <a:t>𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -5214,73 +5367,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛼</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -5327,9 +5414,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>29704</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>106089</xdr:rowOff>
+      <xdr:colOff>22377</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172031</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2561342" cy="350865"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5341,7 +5428,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29704" y="3192189"/>
+              <a:off x="22377" y="5359493"/>
               <a:ext cx="2561342" cy="350865"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5406,7 +5493,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5448,7 +5535,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5535,7 +5622,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5702,7 +5789,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5955,7 +6042,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="29704" y="3192189"/>
+              <a:off x="22377" y="5359493"/>
               <a:ext cx="2561342" cy="350865"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5994,6 +6081,108 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>〖𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼_0 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>〖</a:t>
               </a:r>
               <a:r>
@@ -6002,7 +6191,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6018,43 +6207,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>/(</a:t>
+                <a:t>𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -6062,85 +6215,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛼_0 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜕</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐵〗_0  sin⁡〖(𝛼−𝛼_0)〗)/(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -6187,11 +6262,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>150987</xdr:rowOff>
+      <xdr:rowOff>134422</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4467225" cy="1001538"/>
+    <xdr:ext cx="3503543" cy="1001538"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -6201,8 +6276,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="78441" y="7300340"/>
-              <a:ext cx="4467225" cy="1001538"/>
+              <a:off x="0" y="7232618"/>
+              <a:ext cx="3503543" cy="1001538"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6434,7 +6509,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6491,7 +6566,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6697,7 +6772,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6754,7 +6829,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6898,7 +6973,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -6955,7 +7030,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -7813,8 +7888,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="78441" y="7300340"/>
-              <a:ext cx="4467225" cy="1001538"/>
+              <a:off x="0" y="7232618"/>
+              <a:ext cx="3503543" cy="1001538"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7974,7 +8049,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8034,7 +8109,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8142,7 +8217,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8202,7 +8277,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8262,7 +8337,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8322,7 +8397,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -8589,8 +8664,8 @@
       <xdr:rowOff>15842</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="965777" cy="365157"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -8750,7 +8825,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19"/>
@@ -8858,8 +8933,8 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="419730" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -8932,7 +9007,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20"/>
@@ -9005,8 +9080,8 @@
       <xdr:rowOff>3049</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="385234" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -9134,7 +9209,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21"/>
@@ -9226,8 +9301,8 @@
       <xdr:rowOff>13324</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="714106" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -9381,7 +9456,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22"/>
@@ -9446,8 +9521,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="684867" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -9577,7 +9652,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -9658,12 +9733,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>24846</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>162467</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1739349" cy="331303"/>
+    <xdr:ext cx="1186960" cy="331303"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -9673,8 +9748,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2758107" y="6029740"/>
-              <a:ext cx="1739349" cy="331303"/>
+              <a:off x="7328" y="5921429"/>
+              <a:ext cx="1186960" cy="331303"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9728,7 +9803,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9741,7 +9816,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9755,7 +9830,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9860,7 +9935,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9873,7 +9948,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9887,7 +9962,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9921,8 +9996,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2758107" y="6029740"/>
-              <a:ext cx="1739349" cy="331303"/>
+              <a:off x="7328" y="5921429"/>
+              <a:ext cx="1186960" cy="331303"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9962,7 +10037,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -10014,43 +10089,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐵^2 (</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝛼_0</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t>𝐵^2 (𝛼_0 ) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -10074,12 +10113,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>49695</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144944</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1706217" cy="339587"/>
+    <xdr:ext cx="1106365" cy="339587"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -10089,8 +10128,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2733261" y="6576391"/>
-              <a:ext cx="1706217" cy="339587"/>
+              <a:off x="36635" y="6475406"/>
+              <a:ext cx="1106365" cy="339587"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10145,7 +10184,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -10240,49 +10279,21 @@
                             </m:ctrlPr>
                           </m:dPr>
                           <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝛼</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>0</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
+                            <m:r>
+                              <m:rPr>
+                                <m:sty m:val="p"/>
+                              </m:rPr>
+                              <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>α</m:t>
+                            </m:r>
                           </m:e>
                         </m:d>
                         <m:r>
@@ -10309,8 +10320,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2733261" y="6576391"/>
-              <a:ext cx="1706217" cy="339587"/>
+              <a:off x="36635" y="6475406"/>
+              <a:ext cx="1106365" cy="339587"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -10350,6 +10361,66 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>α</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵^2 (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -10358,35 +10429,364 @@
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>)=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>√(</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑢</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83399</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>81170</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="969111" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="83399" y="6983132"/>
+              <a:ext cx="969111" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑛</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑛</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>(</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>,</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝛼</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>,</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝛼</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>)</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="83399" y="6983132"/>
+              <a:ext cx="969111" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -10398,11 +10798,15 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐵^2 (</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> = </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -10414,7 +10818,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝛼_0</a:t>
+                <a:t>𝐵</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -10422,11 +10826,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -10434,25 +10838,88 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑛</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵_0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛼</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>)</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -10728,8 +11195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:I44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10739,124 +11206,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="2">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="E5" s="7">
         <f>DEGREES(D5)</f>
-        <v>174.75212751490108</v>
+        <v>177.61691649055521</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -10908,393 +11375,393 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="27"/>
+      <c r="C17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="29"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23">
+      <c r="C18" s="13"/>
+      <c r="D18" s="19">
         <v>0.5</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="29"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15">
         <v>0.05</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="29"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="26">
-        <v>2.8867513459481202</v>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16">
+        <v>2.9</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28">
-        <v>2.8867513459481202</v>
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18">
+        <v>2.9</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="1"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="1"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
